--- a/公式.xlsx
+++ b/公式.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuliang/Documents/Git/jiepai/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="28880" windowHeight="17080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +57,13 @@
   </si>
   <si>
     <t>最后一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差</t>
+    <rPh sb="0" eb="1">
+      <t>wu cha</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -172,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,7 +224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,17 +435,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="72.875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="14.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="72.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -452,6 +469,9 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -7823,7 +7843,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7836,7 +7856,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/公式.xlsx
+++ b/公式.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="28880" windowHeight="17080"/>
+    <workbookView xWindow="50460" yWindow="820" windowWidth="25800" windowHeight="18840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="每分钟" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +65,10 @@
     <rPh sb="0" eb="1">
       <t>wu cha</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +438,4405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="14.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <f>60*1000/A2</f>
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>80</v>
+      </c>
+      <c r="F2">
+        <f>B2*D2/C2</f>
+        <v>25</v>
+      </c>
+      <c r="G2" s="2">
+        <f>FLOOR(F2,1)</f>
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <f>E2*G2</f>
+        <v>2000</v>
+      </c>
+      <c r="I2">
+        <f>B2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2+G2</f>
+        <v>25</v>
+      </c>
+      <c r="K2" t="str">
+        <f>"{num:"&amp;A2&amp;",maxangle:"&amp;C2&amp;",addangle:"&amp;D2&amp;",clocks:"&amp;G2&amp;"},"</f>
+        <v>{num:30,maxangle:40,addangle:0.5,clocks:25},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">60*1000/A3</f>
+        <v>1935.483870967742</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">C3/D3</f>
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="2">B3*D3/C3</f>
+        <v>24.193548387096776</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G66" si="3">FLOOR(F3,1)</f>
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="4">E3*G3</f>
+        <v>1920</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="5">B3-H3</f>
+        <v>15.48387096774195</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J66" si="6">I3+G3</f>
+        <v>39.48387096774195</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="7">"{num:"&amp;A3&amp;",maxangle:"&amp;C3&amp;",addangle:"&amp;D3&amp;",clocks:"&amp;G3&amp;"},"</f>
+        <v>{num:31,maxangle:40,addangle:0.5,clocks:24},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1875</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>23.4375</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>1840</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:32,maxangle:40,addangle:0.5,clocks:23},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1818.1818181818182</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>22.727272727272727</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>1760</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>58.181818181818244</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="6"/>
+        <v>80.181818181818244</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:33,maxangle:40,addangle:0.5,clocks:22},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1764.7058823529412</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>22.058823529411764</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>1760</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>4.7058823529412166</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="6"/>
+        <v>26.705882352941217</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:34,maxangle:40,addangle:0.5,clocks:22},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1714.2857142857142</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>1680</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>34.285714285714221</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="6"/>
+        <v>55.285714285714221</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:35,maxangle:40,addangle:0.5,clocks:21},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>66.666666666666742</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="6"/>
+        <v>86.666666666666742</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:36,maxangle:40,addangle:0.5,clocks:20},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1621.6216216216217</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>20.27027027027027</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>21.621621621621671</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="6"/>
+        <v>41.621621621621671</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:37,maxangle:40,addangle:0.5,clocks:20},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1578.9473684210527</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>19.736842105263158</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>1520</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>58.947368421052715</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="6"/>
+        <v>77.947368421052715</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:38,maxangle:40,addangle:0.5,clocks:19},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1538.4615384615386</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>19.230769230769234</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>1520</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>18.461538461538566</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="6"/>
+        <v>37.461538461538566</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:39,maxangle:40,addangle:0.5,clocks:19},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>18.75</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>1440</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:40,maxangle:40,addangle:0.5,clocks:18},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1463.4146341463415</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>18.292682926829269</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>1440</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>23.414634146341541</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="6"/>
+        <v>41.414634146341541</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:41,maxangle:40,addangle:0.5,clocks:18},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>1360</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>68.571428571428669</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="6"/>
+        <v>85.571428571428669</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:42,maxangle:40,addangle:0.5,clocks:17},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1395.3488372093022</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>17.441860465116278</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>1360</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>35.348837209302246</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="6"/>
+        <v>52.348837209302246</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:43,maxangle:40,addangle:0.5,clocks:17},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1363.6363636363637</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>17.045454545454547</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>1360</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>3.6363636363637397</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="6"/>
+        <v>20.63636363636374</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:44,maxangle:40,addangle:0.5,clocks:17},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>1280</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>53.333333333333258</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="6"/>
+        <v>69.333333333333258</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:45,maxangle:40,addangle:0.5,clocks:16},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1304.3478260869565</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>16.304347826086957</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>1280</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>24.347826086956502</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="6"/>
+        <v>40.347826086956502</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:46,maxangle:40,addangle:0.5,clocks:16},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1276.5957446808511</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>15.957446808510639</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>76.595744680851112</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="6"/>
+        <v>91.595744680851112</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:47,maxangle:40,addangle:0.5,clocks:15},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>15.625</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:48,maxangle:40,addangle:0.5,clocks:15},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1224.4897959183672</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>15.30612244897959</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>24.489795918367236</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="6"/>
+        <v>39.489795918367236</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:49,maxangle:40,addangle:0.5,clocks:15},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:50,maxangle:40,addangle:0.5,clocks:15},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1176.4705882352941</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>1120</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>56.470588235294144</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="6"/>
+        <v>70.470588235294144</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:51,maxangle:40,addangle:0.5,clocks:14},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1153.8461538461538</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>14.423076923076923</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>1120</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>33.846153846153811</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="6"/>
+        <v>47.846153846153811</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:52,maxangle:40,addangle:0.5,clocks:14},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1132.0754716981132</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>14.150943396226415</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>1120</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>12.075471698113233</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="6"/>
+        <v>26.075471698113233</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:53,maxangle:40,addangle:0.5,clocks:14},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1111.1111111111111</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>1040</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>71.111111111111086</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="6"/>
+        <v>84.111111111111086</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:54,maxangle:40,addangle:0.5,clocks:13},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1090.909090909091</v>
+      </c>
+      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>1040</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>50.909090909090992</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="6"/>
+        <v>63.909090909090992</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:55,maxangle:40,addangle:0.5,clocks:13},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1071.4285714285713</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>13.392857142857142</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>1040</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>31.428571428571331</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="6"/>
+        <v>44.428571428571331</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:56,maxangle:40,addangle:0.5,clocks:13},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1052.6315789473683</v>
+      </c>
+      <c r="C29">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>13.157894736842104</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>1040</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>12.631578947368325</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="6"/>
+        <v>25.631578947368325</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:57,maxangle:40,addangle:0.5,clocks:13},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1034.4827586206898</v>
+      </c>
+      <c r="C30">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>12.931034482758623</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>74.482758620689765</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="6"/>
+        <v>86.482758620689765</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:58,maxangle:40,addangle:0.5,clocks:12},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1016.9491525423729</v>
+      </c>
+      <c r="C31">
+        <v>40</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>12.711864406779661</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>56.949152542372872</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="6"/>
+        <v>68.949152542372872</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:59,maxangle:40,addangle:0.5,clocks:12},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:60,maxangle:40,addangle:0.8,clocks:20},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>983.60655737704917</v>
+      </c>
+      <c r="C33">
+        <v>40</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>19.672131147540984</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>950</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>33.606557377049171</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="6"/>
+        <v>52.606557377049171</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:61,maxangle:40,addangle:0.8,clocks:19},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>967.74193548387098</v>
+      </c>
+      <c r="C34">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>950</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>17.741935483870975</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="6"/>
+        <v>36.741935483870975</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:62,maxangle:40,addangle:0.8,clocks:19},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>952.38095238095241</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>950</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>2.380952380952408</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="6"/>
+        <v>21.380952380952408</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:63,maxangle:40,addangle:0.8,clocks:19},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>937.5</v>
+      </c>
+      <c r="C36">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>18.75</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>37.5</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="6"/>
+        <v>55.5</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:64,maxangle:40,addangle:0.8,clocks:18},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>65</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>923.07692307692309</v>
+      </c>
+      <c r="C37">
+        <v>40</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>18.461538461538463</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>23.076923076923094</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="6"/>
+        <v>41.076923076923094</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:65,maxangle:40,addangle:0.8,clocks:18},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>66</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>909.09090909090912</v>
+      </c>
+      <c r="C38">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>9.0909090909091219</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="6"/>
+        <v>27.090909090909122</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:66,maxangle:40,addangle:0.8,clocks:18},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>67</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>895.52238805970148</v>
+      </c>
+      <c r="C39">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>17.910447761194028</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>45.522388059701484</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="6"/>
+        <v>62.522388059701484</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:67,maxangle:40,addangle:0.8,clocks:17},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>68</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>882.35294117647061</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>32.352941176470608</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="6"/>
+        <v>49.352941176470608</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:68,maxangle:40,addangle:0.8,clocks:17},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>869.56521739130437</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="5"/>
+        <v>19.565217391304373</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="6"/>
+        <v>36.565217391304373</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:69,maxangle:40,addangle:0.8,clocks:17},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>70</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>857.14285714285711</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>17.142857142857146</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="5"/>
+        <v>7.1428571428571104</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="6"/>
+        <v>24.14285714285711</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:70,maxangle:40,addangle:0.8,clocks:17},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>845.07042253521126</v>
+      </c>
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>16.901408450704228</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="5"/>
+        <v>45.070422535211264</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="6"/>
+        <v>61.070422535211264</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:71,maxangle:40,addangle:0.8,clocks:16},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>72</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="5"/>
+        <v>33.333333333333371</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="6"/>
+        <v>49.333333333333371</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:72,maxangle:40,addangle:0.8,clocks:16},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>73</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>821.91780821917803</v>
+      </c>
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>16.43835616438356</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="5"/>
+        <v>21.917808219178028</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="6"/>
+        <v>37.917808219178028</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:73,maxangle:40,addangle:0.8,clocks:16},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>810.81081081081084</v>
+      </c>
+      <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>16.216216216216218</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="5"/>
+        <v>10.810810810810835</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="6"/>
+        <v>26.810810810810835</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:74,maxangle:40,addangle:0.8,clocks:16},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:75,maxangle:40,addangle:0.8,clocks:16},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>789.47368421052636</v>
+      </c>
+      <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>19.736842105263158</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>760</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="5"/>
+        <v>29.473684210526358</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="6"/>
+        <v>48.473684210526358</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:76,maxangle:40,addangle:1,clocks:19},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>779.22077922077926</v>
+      </c>
+      <c r="C49">
+        <v>40</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>19.480519480519483</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>760</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="5"/>
+        <v>19.220779220779264</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="6"/>
+        <v>38.220779220779264</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:77,maxangle:40,addangle:1,clocks:19},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>78</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>769.23076923076928</v>
+      </c>
+      <c r="C50">
+        <v>40</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>19.230769230769234</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>760</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="5"/>
+        <v>9.2307692307692832</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="6"/>
+        <v>28.230769230769283</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:78,maxangle:40,addangle:1,clocks:19},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>79</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>759.49367088607596</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>18.9873417721519</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="5"/>
+        <v>39.493670886075961</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="6"/>
+        <v>57.493670886075961</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:79,maxangle:40,addangle:1,clocks:18},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>18.75</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:80,maxangle:40,addangle:1,clocks:18},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>81</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>740.74074074074076</v>
+      </c>
+      <c r="C53">
+        <v>40</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>18.518518518518519</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="5"/>
+        <v>20.740740740740762</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="6"/>
+        <v>38.740740740740762</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:81,maxangle:40,addangle:1,clocks:18},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>82</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>731.70731707317077</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>18.292682926829269</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="5"/>
+        <v>11.707317073170771</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="6"/>
+        <v>29.707317073170771</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:82,maxangle:40,addangle:1,clocks:18},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>83</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>722.89156626506019</v>
+      </c>
+      <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>18.072289156626503</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="5"/>
+        <v>2.8915662650601917</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="6"/>
+        <v>20.891566265060192</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:83,maxangle:40,addangle:1,clocks:18},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>84</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>714.28571428571433</v>
+      </c>
+      <c r="C56">
+        <v>40</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="5"/>
+        <v>34.285714285714334</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="6"/>
+        <v>51.285714285714334</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:84,maxangle:40,addangle:1,clocks:17},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>85</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>705.88235294117646</v>
+      </c>
+      <c r="C57">
+        <v>40</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="5"/>
+        <v>25.882352941176464</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="6"/>
+        <v>42.882352941176464</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:85,maxangle:40,addangle:1,clocks:17},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>86</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>697.67441860465112</v>
+      </c>
+      <c r="C58">
+        <v>40</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>17.441860465116278</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="5"/>
+        <v>17.674418604651123</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="6"/>
+        <v>34.674418604651123</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:86,maxangle:40,addangle:1,clocks:17},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>87</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>689.65517241379314</v>
+      </c>
+      <c r="C59">
+        <v>40</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>17.241379310344829</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="5"/>
+        <v>9.6551724137931387</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="6"/>
+        <v>26.655172413793139</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:87,maxangle:40,addangle:1,clocks:17},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>88</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>681.81818181818187</v>
+      </c>
+      <c r="C60">
+        <v>40</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>17.045454545454547</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="5"/>
+        <v>1.8181818181818699</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="6"/>
+        <v>18.81818181818187</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:88,maxangle:40,addangle:1,clocks:17},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>89</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>674.15730337078651</v>
+      </c>
+      <c r="C61">
+        <v>40</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>16.853932584269664</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="5"/>
+        <v>34.157303370786508</v>
+      </c>
+      <c r="J61" s="3">
+        <f t="shared" si="6"/>
+        <v>50.157303370786508</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:89,maxangle:40,addangle:1,clocks:16},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>90</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="C62">
+        <v>40</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="5"/>
+        <v>26.666666666666629</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="6"/>
+        <v>42.666666666666629</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:90,maxangle:40,addangle:1,clocks:16},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>91</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>659.34065934065939</v>
+      </c>
+      <c r="C63">
+        <v>40</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>16.483516483516485</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="5"/>
+        <v>19.340659340659386</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="6"/>
+        <v>35.340659340659386</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:91,maxangle:40,addangle:1,clocks:16},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>92</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>652.17391304347825</v>
+      </c>
+      <c r="C64">
+        <v>40</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>16.304347826086957</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="5"/>
+        <v>12.173913043478251</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="6"/>
+        <v>28.173913043478251</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:92,maxangle:40,addangle:1,clocks:16},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>93</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>645.16129032258061</v>
+      </c>
+      <c r="C65">
+        <v>40</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>16.129032258064516</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="5"/>
+        <v>5.1612903225806122</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="6"/>
+        <v>21.161290322580612</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:93,maxangle:40,addangle:1,clocks:16},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>94</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>638.29787234042556</v>
+      </c>
+      <c r="C66">
+        <v>40</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>15.957446808510639</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="5"/>
+        <v>38.297872340425556</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" si="6"/>
+        <v>53.297872340425556</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="7"/>
+        <v>{num:94,maxangle:40,addangle:1,clocks:15},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>95</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B102" si="8">60*1000/A67</f>
+        <v>631.57894736842104</v>
+      </c>
+      <c r="C67">
+        <v>40</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E102" si="9">C67/D67</f>
+        <v>40</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F102" si="10">B67*D67/C67</f>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" ref="G67:G102" si="11">FLOOR(F67,1)</f>
+        <v>15</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H102" si="12">E67*G67</f>
+        <v>600</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I102" si="13">B67-H67</f>
+        <v>31.578947368421041</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" ref="J67:J102" si="14">I67+G67</f>
+        <v>46.578947368421041</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K102" si="15">"{num:"&amp;A67&amp;",maxangle:"&amp;C67&amp;",addangle:"&amp;D67&amp;",clocks:"&amp;G67&amp;"},"</f>
+        <v>{num:95,maxangle:40,addangle:1,clocks:15},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>96</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="8"/>
+        <v>625</v>
+      </c>
+      <c r="C68">
+        <v>40</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="10"/>
+        <v>15.625</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:96,maxangle:40,addangle:1,clocks:15},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>97</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="8"/>
+        <v>618.5567010309278</v>
+      </c>
+      <c r="C69">
+        <v>40</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="10"/>
+        <v>15.463917525773194</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="13"/>
+        <v>18.556701030927798</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="14"/>
+        <v>33.556701030927798</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:97,maxangle:40,addangle:1,clocks:15},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>98</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="8"/>
+        <v>612.24489795918362</v>
+      </c>
+      <c r="C70">
+        <v>40</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="10"/>
+        <v>15.30612244897959</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="13"/>
+        <v>12.244897959183618</v>
+      </c>
+      <c r="J70" s="3">
+        <f t="shared" si="14"/>
+        <v>27.244897959183618</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:98,maxangle:40,addangle:1,clocks:15},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>99</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="8"/>
+        <v>606.06060606060601</v>
+      </c>
+      <c r="C71">
+        <v>40</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="10"/>
+        <v>15.15151515151515</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="13"/>
+        <v>6.0606060606060055</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" si="14"/>
+        <v>21.060606060606005</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:99,maxangle:40,addangle:1,clocks:15},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>100</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="C72">
+        <v>40</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:100,maxangle:40,addangle:1,clocks:15},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>101</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="8"/>
+        <v>594.05940594059405</v>
+      </c>
+      <c r="C73">
+        <v>40</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="10"/>
+        <v>14.85148514851485</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="12"/>
+        <v>560</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="13"/>
+        <v>34.059405940594047</v>
+      </c>
+      <c r="J73" s="3">
+        <f t="shared" si="14"/>
+        <v>48.059405940594047</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:101,maxangle:40,addangle:1,clocks:14},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>102</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="8"/>
+        <v>588.23529411764707</v>
+      </c>
+      <c r="C74">
+        <v>40</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="10"/>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="12"/>
+        <v>560</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="13"/>
+        <v>28.235294117647072</v>
+      </c>
+      <c r="J74" s="3">
+        <f t="shared" si="14"/>
+        <v>42.235294117647072</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:102,maxangle:40,addangle:1,clocks:14},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>103</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="8"/>
+        <v>582.52427184466023</v>
+      </c>
+      <c r="C75">
+        <v>40</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="10"/>
+        <v>14.563106796116505</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="12"/>
+        <v>560</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="13"/>
+        <v>22.524271844660234</v>
+      </c>
+      <c r="J75" s="3">
+        <f t="shared" si="14"/>
+        <v>36.524271844660234</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:103,maxangle:40,addangle:1,clocks:14},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>104</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="8"/>
+        <v>576.92307692307691</v>
+      </c>
+      <c r="C76">
+        <v>40</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="10"/>
+        <v>14.423076923076923</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="12"/>
+        <v>560</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="13"/>
+        <v>16.923076923076906</v>
+      </c>
+      <c r="J76" s="3">
+        <f t="shared" si="14"/>
+        <v>30.923076923076906</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:104,maxangle:40,addangle:1,clocks:14},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>105</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="8"/>
+        <v>571.42857142857144</v>
+      </c>
+      <c r="C77">
+        <v>40</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="10"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="12"/>
+        <v>560</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="13"/>
+        <v>11.428571428571445</v>
+      </c>
+      <c r="J77" s="3">
+        <f t="shared" si="14"/>
+        <v>25.428571428571445</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:105,maxangle:40,addangle:1,clocks:14},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>106</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="8"/>
+        <v>566.03773584905662</v>
+      </c>
+      <c r="C78">
+        <v>40</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="10"/>
+        <v>14.150943396226415</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="12"/>
+        <v>560</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="13"/>
+        <v>6.0377358490566166</v>
+      </c>
+      <c r="J78" s="3">
+        <f t="shared" si="14"/>
+        <v>20.037735849056617</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:106,maxangle:40,addangle:1,clocks:14},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>107</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="8"/>
+        <v>560.74766355140184</v>
+      </c>
+      <c r="C79">
+        <v>40</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="10"/>
+        <v>14.018691588785046</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="12"/>
+        <v>560</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="13"/>
+        <v>0.7476635514018426</v>
+      </c>
+      <c r="J79" s="3">
+        <f t="shared" si="14"/>
+        <v>14.747663551401843</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:107,maxangle:40,addangle:1,clocks:14},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>108</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="8"/>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="C80">
+        <v>40</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="10"/>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="13"/>
+        <v>35.555555555555543</v>
+      </c>
+      <c r="J80" s="3">
+        <f t="shared" si="14"/>
+        <v>48.555555555555543</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:108,maxangle:40,addangle:1,clocks:13},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>109</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="8"/>
+        <v>550.45871559633031</v>
+      </c>
+      <c r="C81">
+        <v>40</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="10"/>
+        <v>13.761467889908257</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="13"/>
+        <v>30.458715596330308</v>
+      </c>
+      <c r="J81" s="3">
+        <f t="shared" si="14"/>
+        <v>43.458715596330308</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:109,maxangle:40,addangle:1,clocks:13},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>110</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="8"/>
+        <v>545.4545454545455</v>
+      </c>
+      <c r="C82">
+        <v>40</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="10"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="13"/>
+        <v>25.454545454545496</v>
+      </c>
+      <c r="J82" s="3">
+        <f t="shared" si="14"/>
+        <v>38.454545454545496</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:110,maxangle:40,addangle:1,clocks:13},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>111</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="8"/>
+        <v>540.54054054054052</v>
+      </c>
+      <c r="C83">
+        <v>40</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="10"/>
+        <v>13.513513513513512</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="13"/>
+        <v>20.540540540540519</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" si="14"/>
+        <v>33.540540540540519</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:111,maxangle:40,addangle:1,clocks:13},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>112</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="8"/>
+        <v>535.71428571428567</v>
+      </c>
+      <c r="C84">
+        <v>40</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="10"/>
+        <v>13.392857142857142</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="13"/>
+        <v>15.714285714285666</v>
+      </c>
+      <c r="J84" s="3">
+        <f t="shared" si="14"/>
+        <v>28.714285714285666</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:112,maxangle:40,addangle:1,clocks:13},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>113</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="8"/>
+        <v>530.97345132743362</v>
+      </c>
+      <c r="C85">
+        <v>40</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="10"/>
+        <v>13.274336283185841</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="13"/>
+        <v>10.973451327433622</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" si="14"/>
+        <v>23.973451327433622</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:113,maxangle:40,addangle:1,clocks:13},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>114</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="8"/>
+        <v>526.31578947368416</v>
+      </c>
+      <c r="C86">
+        <v>40</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="10"/>
+        <v>13.157894736842104</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="13"/>
+        <v>6.3157894736841627</v>
+      </c>
+      <c r="J86" s="3">
+        <f t="shared" si="14"/>
+        <v>19.315789473684163</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:114,maxangle:40,addangle:1,clocks:13},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>115</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="8"/>
+        <v>521.73913043478262</v>
+      </c>
+      <c r="C87">
+        <v>40</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="10"/>
+        <v>13.043478260869566</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="13"/>
+        <v>1.7391304347826235</v>
+      </c>
+      <c r="J87" s="3">
+        <f t="shared" si="14"/>
+        <v>14.739130434782624</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:115,maxangle:40,addangle:1,clocks:13},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>116</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="8"/>
+        <v>517.24137931034488</v>
+      </c>
+      <c r="C88">
+        <v>40</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="10"/>
+        <v>12.931034482758623</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="13"/>
+        <v>37.241379310344882</v>
+      </c>
+      <c r="J88" s="3">
+        <f t="shared" si="14"/>
+        <v>49.241379310344882</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:116,maxangle:40,addangle:1,clocks:12},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>117</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="8"/>
+        <v>512.82051282051282</v>
+      </c>
+      <c r="C89">
+        <v>40</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="10"/>
+        <v>12.820512820512821</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="13"/>
+        <v>32.820512820512818</v>
+      </c>
+      <c r="J89" s="3">
+        <f t="shared" si="14"/>
+        <v>44.820512820512818</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:117,maxangle:40,addangle:1,clocks:12},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>118</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="8"/>
+        <v>508.47457627118644</v>
+      </c>
+      <c r="C90">
+        <v>40</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="10"/>
+        <v>12.711864406779661</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="13"/>
+        <v>28.474576271186436</v>
+      </c>
+      <c r="J90" s="3">
+        <f t="shared" si="14"/>
+        <v>40.474576271186436</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:118,maxangle:40,addangle:1,clocks:12},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>119</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="8"/>
+        <v>504.20168067226894</v>
+      </c>
+      <c r="C91">
+        <v>40</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="10"/>
+        <v>12.605042016806724</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="13"/>
+        <v>24.201680672268935</v>
+      </c>
+      <c r="J91" s="3">
+        <f t="shared" si="14"/>
+        <v>36.201680672268935</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:119,maxangle:40,addangle:1,clocks:12},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>120</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+      <c r="C92">
+        <v>40</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="10"/>
+        <v>12.5</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="J92" s="3">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:120,maxangle:40,addangle:1,clocks:12},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>121</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="8"/>
+        <v>495.8677685950413</v>
+      </c>
+      <c r="C93">
+        <v>40</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="10"/>
+        <v>12.396694214876032</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="13"/>
+        <v>15.867768595041298</v>
+      </c>
+      <c r="J93" s="3">
+        <f t="shared" si="14"/>
+        <v>27.867768595041298</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:121,maxangle:40,addangle:1,clocks:12},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>122</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="8"/>
+        <v>491.80327868852459</v>
+      </c>
+      <c r="C94">
+        <v>40</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="10"/>
+        <v>12.295081967213115</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="13"/>
+        <v>11.803278688524586</v>
+      </c>
+      <c r="J94" s="3">
+        <f t="shared" si="14"/>
+        <v>23.803278688524586</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:122,maxangle:40,addangle:1,clocks:12},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>123</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="8"/>
+        <v>487.80487804878049</v>
+      </c>
+      <c r="C95">
+        <v>40</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="10"/>
+        <v>12.195121951219512</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="13"/>
+        <v>7.8048780487804947</v>
+      </c>
+      <c r="J95" s="3">
+        <f t="shared" si="14"/>
+        <v>19.804878048780495</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:123,maxangle:40,addangle:1,clocks:12},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>124</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="8"/>
+        <v>483.87096774193549</v>
+      </c>
+      <c r="C96">
+        <v>40</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="10"/>
+        <v>12.096774193548388</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="13"/>
+        <v>3.8709677419354875</v>
+      </c>
+      <c r="J96" s="3">
+        <f t="shared" si="14"/>
+        <v>15.870967741935488</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:124,maxangle:40,addangle:1,clocks:12},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>125</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="8"/>
+        <v>480</v>
+      </c>
+      <c r="C97">
+        <v>40</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="3">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:125,maxangle:40,addangle:1,clocks:12},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>126</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="8"/>
+        <v>476.1904761904762</v>
+      </c>
+      <c r="C98">
+        <v>40</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="10"/>
+        <v>11.904761904761905</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="12"/>
+        <v>440</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="13"/>
+        <v>36.190476190476204</v>
+      </c>
+      <c r="J98" s="3">
+        <f t="shared" si="14"/>
+        <v>47.190476190476204</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:126,maxangle:40,addangle:1,clocks:11},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>127</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="8"/>
+        <v>472.44094488188978</v>
+      </c>
+      <c r="C99">
+        <v>40</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="10"/>
+        <v>11.811023622047244</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="12"/>
+        <v>440</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="13"/>
+        <v>32.440944881889777</v>
+      </c>
+      <c r="J99" s="3">
+        <f t="shared" si="14"/>
+        <v>43.440944881889777</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:127,maxangle:40,addangle:1,clocks:11},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>128</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="8"/>
+        <v>468.75</v>
+      </c>
+      <c r="C100">
+        <v>40</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="10"/>
+        <v>11.71875</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="12"/>
+        <v>440</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="13"/>
+        <v>28.75</v>
+      </c>
+      <c r="J100" s="3">
+        <f t="shared" si="14"/>
+        <v>39.75</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:128,maxangle:40,addangle:1,clocks:11},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="8"/>
+        <v>465.11627906976742</v>
+      </c>
+      <c r="C101">
+        <v>40</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="10"/>
+        <v>11.627906976744185</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="12"/>
+        <v>440</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="13"/>
+        <v>25.116279069767415</v>
+      </c>
+      <c r="J101" s="3">
+        <f t="shared" si="14"/>
+        <v>36.116279069767415</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="15"/>
+        <v>{num:129,maxangle:40,addangle:1,clocks:11},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>130</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="8"/>
+        <v>461.53846153846155</v>
+      </c>
+      <c r="C102">
+        <v>40</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="10"/>
+        <v>11.538461538461538</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="12"/>
+        <v>440</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="13"/>
+        <v>21.538461538461547</v>
+      </c>
+      <c r="J102" s="3">
+        <f t="shared" si="14"/>
+        <v>32.538461538461547</v>
+      </c>
+      <c r="K102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -7837,7 +12237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7850,7 +12250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
